--- a/ConfigurationFiles/03-Score_weight_TG.xlsx
+++ b/ConfigurationFiles/03-Score_weight_TG.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Weight</t>
   </si>
@@ -30,40 +30,31 @@
     <t>Group</t>
   </si>
   <si>
-    <t>SN1_[FA-H2O+H]+</t>
-  </si>
-  <si>
-    <t>SN2_[FA-H2O+H]+</t>
-  </si>
-  <si>
-    <t>SN3_[FA-H2O+H]+</t>
-  </si>
-  <si>
-    <t>[MG(SN1)-H2O+H]+</t>
-  </si>
-  <si>
-    <t>[MG(SN2)-H2O+H]+</t>
-  </si>
-  <si>
-    <t>[MG(SN3)-H2O+H]+</t>
-  </si>
-  <si>
-    <t>[M-(SN1)+H]+</t>
-  </si>
-  <si>
-    <t>[M-(SN2)+H]+</t>
-  </si>
-  <si>
-    <t>[M-(SN3)+H]+</t>
-  </si>
-  <si>
-    <t>[M-(SN1-H2O)+H]+</t>
-  </si>
-  <si>
-    <t>[M-(SN2-H2O)+H]+</t>
-  </si>
-  <si>
-    <t>[M-(SN3-H2O)+H]+</t>
+    <t>FA1_[FA-H2O+H]+</t>
+  </si>
+  <si>
+    <t>[MG(FA1)-H2O+H]+</t>
+  </si>
+  <si>
+    <t>[M-(FA1)+H]+</t>
+  </si>
+  <si>
+    <t>FA2_[FA-H2O+H]+</t>
+  </si>
+  <si>
+    <t>[MG(FA2)-H2O+H]+</t>
+  </si>
+  <si>
+    <t>[M-(FA2)+H]+</t>
+  </si>
+  <si>
+    <t>FA3_[FA-H2O+H]+</t>
+  </si>
+  <si>
+    <t>[MG(FA3)-H2O+H]+</t>
+  </si>
+  <si>
+    <t>[M-(FA3)+H]+</t>
   </si>
 </sst>
 </file>
@@ -415,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,7 +433,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -450,10 +441,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -461,10 +452,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -472,10 +463,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -486,7 +477,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -494,10 +485,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -505,7 +496,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>30</v>
@@ -516,7 +507,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>30</v>
@@ -533,39 +524,6 @@
         <v>30</v>
       </c>
       <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>1.3</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>1.3</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>1.3</v>
-      </c>
-      <c r="C13">
         <v>2</v>
       </c>
     </row>
